--- a/Tools.xlsx
+++ b/Tools.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DCAFA4-6CF6-4196-89A3-B36ECD51851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BCC1CD-79DF-4C48-ABBE-6458AAA1669E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>150 x 50 x …</t>
   </si>
   <si>
-    <t>400-700 Евро/кубометр</t>
-  </si>
-  <si>
     <t>45 x 145 x 3000-6000</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>DeWalt DPN9033SM-XJ</t>
+  </si>
+  <si>
+    <t>400-700 Евро/кубометр (415 Eur)</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,106 +524,106 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>375.99</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>14.3</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>9.9</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>13.8</v>
@@ -647,15 +647,15 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>10.5</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>11.55</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>16.899999999999999</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>25</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>5.75</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>32</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>5.3</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>8.6999999999999993</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>7.9</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>6</v>

--- a/Tools.xlsx
+++ b/Tools.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Kristal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BCC1CD-79DF-4C48-ABBE-6458AAA1669E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA58926-DA1F-4568-AA4D-02526EADF41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Пиломатериалы</t>
   </si>
@@ -157,6 +168,42 @@
   </si>
   <si>
     <t>400-700 Евро/кубометр (415 Eur)</t>
+  </si>
+  <si>
+    <t>Крыша</t>
+  </si>
+  <si>
+    <t>Металочерепица</t>
+  </si>
+  <si>
+    <t>~8 Еур/м2</t>
+  </si>
+  <si>
+    <t>57*8=556</t>
+  </si>
+  <si>
+    <t>Пленка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 м2 </t>
+  </si>
+  <si>
+    <t>89 Еур</t>
+  </si>
+  <si>
+    <t>Клейкая лента (1-сторонняя)</t>
+  </si>
+  <si>
+    <t>50мм x 25 м (нужно ~3)</t>
+  </si>
+  <si>
+    <t>14*3=42</t>
+  </si>
+  <si>
+    <t>3*6.5*2=39</t>
+  </si>
+  <si>
+    <t>3*3*2=18</t>
   </si>
 </sst>
 </file>
@@ -201,10 +248,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -486,17 +534,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D26"/>
+  <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="74.5703125" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
     <col min="4" max="4" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -731,6 +779,57 @@
       </c>
       <c r="C26">
         <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Tools.xlsx
+++ b/Tools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA58926-DA1F-4568-AA4D-02526EADF41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DBDC43-3AF8-4045-B912-BB06ADA8EB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Пиломатериалы</t>
   </si>
@@ -204,6 +204,45 @@
   </si>
   <si>
     <t>3*3*2=18</t>
+  </si>
+  <si>
+    <t>K-Senukai</t>
+  </si>
+  <si>
+    <t>Koka zāģēšanas mašīna Scheppach HM 140L, 2000 W, 305 mm</t>
+  </si>
+  <si>
+    <t>279 Евро</t>
+  </si>
+  <si>
+    <t>104 Евро</t>
+  </si>
+  <si>
+    <t>Naglotājs rāmju FXA 34/90 50-90mm</t>
+  </si>
+  <si>
+    <t>53.50 Евро</t>
+  </si>
+  <si>
+    <t>Naglas pneim.prof 34° 90X3,1 HDG 2080GB</t>
+  </si>
+  <si>
+    <t>375.99 Евро</t>
+  </si>
+  <si>
+    <t>Блоки</t>
+  </si>
+  <si>
+    <t>Утепление (м2)</t>
+  </si>
+  <si>
+    <t>~200 m2</t>
+  </si>
+  <si>
+    <t>ЭППС (1235x585x100) -&gt; 0.72 m2 -&gt; 9.16 Eur/упаковка (3 шт)</t>
+  </si>
+  <si>
+    <t>200 м2 * 3 Евро = 600 Евро</t>
   </si>
 </sst>
 </file>
@@ -235,10 +274,156 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -248,11 +433,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -534,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D40"/>
+  <dimension ref="A2:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,288 +746,386 @@
     <col min="4" max="4" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>375.99</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
+      <c r="C16" s="2">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14">
+      <c r="C17" s="2">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C18" s="2">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17">
+      <c r="C20" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18">
+      <c r="C21" s="2">
         <v>11.55</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19">
+      <c r="C22" s="2">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20">
+      <c r="C23" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21">
+      <c r="C24" s="2">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22">
+      <c r="C25" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23">
+      <c r="C26" s="2">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24">
+      <c r="C27" s="2">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C25">
+      <c r="C28" s="2">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C26">
+      <c r="C29" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>57</v>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>49</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -840,12 +1136,17 @@
     <hyperlink ref="B6" r:id="rId4" xr:uid="{CA38C656-742B-4BDB-A97F-B5493A8A0167}"/>
     <hyperlink ref="B7" r:id="rId5" xr:uid="{A6EAEAC2-84C8-4A89-BB7F-ED6F19762C61}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{FB85DE51-5797-417D-9FC7-BB2F01AC821D}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{EE1A107F-FF17-446F-AB41-C7D7164BAFBE}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{CE123262-F643-45D1-A63B-4446C3268B38}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{5C046E3E-100D-42AE-B9FC-6331C038A473}"/>
-    <hyperlink ref="B9" r:id="rId10" xr:uid="{FEA6CFB0-D7C7-49B8-BE33-94D948D45A34}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{EE1A107F-FF17-446F-AB41-C7D7164BAFBE}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{CE123262-F643-45D1-A63B-4446C3268B38}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{5C046E3E-100D-42AE-B9FC-6331C038A473}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{FEA6CFB0-D7C7-49B8-BE33-94D948D45A34}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{D0936AF8-76AE-4ED9-9504-34CCDD15C25C}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{B0DA30A3-1C3C-4348-AC64-7D9ADE6C8253}"/>
+    <hyperlink ref="B11" r:id="rId13" xr:uid="{C0E25CF2-578E-400E-BE6A-3689BF5A02C4}"/>
+    <hyperlink ref="B30" r:id="rId14" xr:uid="{D004D6C2-FBEC-4A81-9CC2-DF8BCE6D3DAF}"/>
+    <hyperlink ref="C46" r:id="rId15" display="ЭППС" xr:uid="{26A1CA41-27D0-49BC-8E80-BA120BB6A8EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Tools.xlsx
+++ b/Tools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DBDC43-3AF8-4045-B912-BB06ADA8EB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8B253-CAA2-4BDD-8A73-51E362125F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>Пиломатериалы</t>
   </si>
@@ -243,6 +243,24 @@
   </si>
   <si>
     <t>200 м2 * 3 Евро = 600 Евро</t>
+  </si>
+  <si>
+    <t>Фундамент в ноль</t>
+  </si>
+  <si>
+    <t>Видео</t>
+  </si>
+  <si>
+    <t>Под блоки нужна гидроизоляция (рубироид)</t>
+  </si>
+  <si>
+    <t>Видео 2</t>
+  </si>
+  <si>
+    <t>Септик</t>
+  </si>
+  <si>
+    <t>к-Сенукай</t>
   </si>
 </sst>
 </file>
@@ -732,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D47"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,6 +1144,30 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1145,8 +1187,11 @@
     <hyperlink ref="B11" r:id="rId13" xr:uid="{C0E25CF2-578E-400E-BE6A-3689BF5A02C4}"/>
     <hyperlink ref="B30" r:id="rId14" xr:uid="{D004D6C2-FBEC-4A81-9CC2-DF8BCE6D3DAF}"/>
     <hyperlink ref="C46" r:id="rId15" display="ЭППС" xr:uid="{26A1CA41-27D0-49BC-8E80-BA120BB6A8EA}"/>
+    <hyperlink ref="B49" r:id="rId16" xr:uid="{3B0503D0-C72D-42D3-B532-AE4A7751486B}"/>
+    <hyperlink ref="B50" r:id="rId17" xr:uid="{B7550C16-CE10-4FE3-A226-82BA71F9BBAA}"/>
+    <hyperlink ref="B52" r:id="rId18" xr:uid="{2D9A850E-B924-4482-BD39-D28F3FB826DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Tools.xlsx
+++ b/Tools.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kristal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8B253-CAA2-4BDD-8A73-51E362125F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD04E80E-38AC-40A0-97FB-C1F4E5FD4327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>Пиломатериалы</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>к-Сенукай</t>
+  </si>
+  <si>
+    <t>FBS фундамент</t>
   </si>
 </sst>
 </file>
@@ -750,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D52"/>
+  <dimension ref="A2:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,11 +1165,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B53" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1189,9 +1200,10 @@
     <hyperlink ref="C46" r:id="rId15" display="ЭППС" xr:uid="{26A1CA41-27D0-49BC-8E80-BA120BB6A8EA}"/>
     <hyperlink ref="B49" r:id="rId16" xr:uid="{3B0503D0-C72D-42D3-B532-AE4A7751486B}"/>
     <hyperlink ref="B50" r:id="rId17" xr:uid="{B7550C16-CE10-4FE3-A226-82BA71F9BBAA}"/>
-    <hyperlink ref="B52" r:id="rId18" xr:uid="{2D9A850E-B924-4482-BD39-D28F3FB826DE}"/>
+    <hyperlink ref="B53" r:id="rId18" xr:uid="{2D9A850E-B924-4482-BD39-D28F3FB826DE}"/>
+    <hyperlink ref="B51" r:id="rId19" xr:uid="{80ED75FD-67B8-4B34-8D86-77DF2C8CA312}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>